--- a/Template_Bill.xlsx
+++ b/Template_Bill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Semester7\PRN221\Assignment\Motel-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEFF7B31-0278-42B3-ABC1-FC8A3D7915EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6C6ABA-45ED-4866-A351-7E8033DDA712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{62D8ABF8-E7F8-418E-B0F7-8F9C87E411DA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Phòng</t>
   </si>
@@ -58,12 +58,25 @@
   </si>
   <si>
     <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Phòng 102</t>
+  </si>
+  <si>
+    <t>Phòng 103</t>
+  </si>
+  <si>
+    <t>Phòng 104</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="[$VND]\ #,##0.00_);\([$VND]\ #,##0.00\)"/>
+    <numFmt numFmtId="169" formatCode="_([$VND]\ * #,##0.00_);_([$VND]\ * \(#,##0.00\);_([$VND]\ * &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,9 +112,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,18 +433,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8807519C-50B4-455E-B776-2C0938E4CF52}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" customWidth="1"/>
     <col min="10" max="10" width="15.44140625" customWidth="1"/>
@@ -437,16 +455,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -466,9 +484,61 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>150000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>168000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>168000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>